--- a/INTLINE/data/136/ISTAT/Consumer confidence Index NSA.xlsx
+++ b/INTLINE/data/136/ISTAT/Consumer confidence Index NSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="491">
   <si>
     <t>Select time</t>
   </si>
@@ -892,6 +892,12 @@
     <t>Mar-2022</t>
   </si>
   <si>
+    <t>Apr-2022</t>
+  </si>
+  <si>
+    <t>May-2022</t>
+  </si>
+  <si>
     <t>Adjustment</t>
   </si>
   <si>
@@ -1475,6 +1481,12 @@
   </si>
   <si>
     <t>112.4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>102.7</t>
   </si>
 </sst>
 </file>
@@ -1832,15 +1844,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:KG5"/>
+  <dimension ref="A1:KI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:293">
+    <row r="1" spans="1:295">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2718,1772 +2730,1790 @@
       <c r="KG1" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="2" spans="1:293">
+    <row r="2" spans="1:295">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="S2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="T2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="V2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="W2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="X2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Y2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Z2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="ED2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="ER2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="ES2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="ET2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="EZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="FZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="ID2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="II2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JG2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JH2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JJ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JK2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JL2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JM2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JN2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JO2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JP2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JQ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JR2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JS2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JT2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JU2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JV2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JW2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JX2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JY2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="JZ2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="KA2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="KB2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="KC2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="KD2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="KE2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="KF2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="KG2" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:293">
+    <row r="3" spans="1:295">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:293">
+    <row r="4" spans="1:295">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:293">
+    <row r="5" spans="1:295">
       <c r="A5" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" t="s">
+        <v>301</v>
+      </c>
+      <c r="O5" t="s">
+        <v>310</v>
+      </c>
+      <c r="P5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>312</v>
+      </c>
+      <c r="R5" t="s">
+        <v>313</v>
+      </c>
+      <c r="S5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T5" t="s">
+        <v>315</v>
+      </c>
+      <c r="U5" t="s">
+        <v>311</v>
+      </c>
+      <c r="V5" t="s">
+        <v>316</v>
+      </c>
+      <c r="W5" t="s">
+        <v>317</v>
+      </c>
+      <c r="X5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>299</v>
       </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="AK5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN5" t="s">
         <v>302</v>
       </c>
-      <c r="I5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="AO5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>330</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT5" t="s">
         <v>304</v>
       </c>
-      <c r="K5" t="s">
+      <c r="AU5" t="s">
+        <v>331</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>332</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>336</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>337</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>338</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>339</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>340</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>306</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>342</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>344</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>345</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>342</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>346</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>348</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>349</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>351</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>352</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>353</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>354</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>355</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>356</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>357</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>358</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>359</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>360</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>361</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>344</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>362</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>354</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>363</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>364</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>365</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>366</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>367</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>368</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>369</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>370</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>371</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>362</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>344</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>365</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>372</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>374</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>375</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>349</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>377</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>378</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>379</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>378</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>373</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>372</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>384</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>385</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>387</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>388</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>369</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>348</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>389</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>344</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>390</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>391</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>369</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>364</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>392</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>362</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>367</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>393</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>394</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>395</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>396</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>344</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>397</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>352</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>343</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>347</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>398</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>399</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>400</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>401</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>381</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>314</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>402</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>350</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>351</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>403</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>404</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>405</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>406</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>342</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>407</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>408</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>408</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>350</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>404</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>405</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>370</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>367</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>409</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>404</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>410</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>411</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>359</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>412</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>391</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>413</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>414</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>415</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>416</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>417</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>418</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>419</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>420</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>421</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>422</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>423</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>424</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>425</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>426</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>427</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>428</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>421</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>421</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>429</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>430</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>368</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>348</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>359</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>360</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>394</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>393</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>431</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>352</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>403</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>432</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>432</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>374</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>433</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>433</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>434</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>435</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>436</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>437</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>317</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>438</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>439</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>440</v>
+      </c>
+      <c r="HD5" t="s">
+        <v>322</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>439</v>
+      </c>
+      <c r="HF5" t="s">
+        <v>316</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>327</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>441</v>
+      </c>
+      <c r="HI5" t="s">
+        <v>442</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>324</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>443</v>
+      </c>
+      <c r="HL5" t="s">
+        <v>444</v>
+      </c>
+      <c r="HM5" t="s">
+        <v>444</v>
+      </c>
+      <c r="HN5" t="s">
+        <v>444</v>
+      </c>
+      <c r="HO5" t="s">
+        <v>310</v>
+      </c>
+      <c r="HP5" t="s">
+        <v>445</v>
+      </c>
+      <c r="HQ5" t="s">
+        <v>338</v>
+      </c>
+      <c r="HR5" t="s">
+        <v>322</v>
+      </c>
+      <c r="HS5" t="s">
+        <v>446</v>
+      </c>
+      <c r="HT5" t="s">
+        <v>447</v>
+      </c>
+      <c r="HU5" t="s">
+        <v>340</v>
+      </c>
+      <c r="HV5" t="s">
+        <v>448</v>
+      </c>
+      <c r="HW5" t="s">
+        <v>316</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>449</v>
+      </c>
+      <c r="HY5" t="s">
+        <v>450</v>
+      </c>
+      <c r="HZ5" t="s">
+        <v>340</v>
+      </c>
+      <c r="IA5" t="s">
         <v>305</v>
       </c>
-      <c r="L5" t="s">
-        <v>306</v>
-      </c>
-      <c r="M5" t="s">
-        <v>307</v>
-      </c>
-      <c r="N5" t="s">
-        <v>299</v>
-      </c>
-      <c r="O5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P5" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>310</v>
-      </c>
-      <c r="R5" t="s">
-        <v>311</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="IB5" t="s">
+        <v>319</v>
+      </c>
+      <c r="IC5" t="s">
+        <v>317</v>
+      </c>
+      <c r="ID5" t="s">
+        <v>451</v>
+      </c>
+      <c r="IE5" t="s">
+        <v>452</v>
+      </c>
+      <c r="IF5" t="s">
+        <v>335</v>
+      </c>
+      <c r="IG5" t="s">
+        <v>332</v>
+      </c>
+      <c r="IH5" t="s">
+        <v>453</v>
+      </c>
+      <c r="II5" t="s">
+        <v>454</v>
+      </c>
+      <c r="IJ5" t="s">
+        <v>455</v>
+      </c>
+      <c r="IK5" t="s">
+        <v>456</v>
+      </c>
+      <c r="IL5" t="s">
+        <v>457</v>
+      </c>
+      <c r="IM5" t="s">
+        <v>458</v>
+      </c>
+      <c r="IN5" t="s">
+        <v>459</v>
+      </c>
+      <c r="IO5" t="s">
+        <v>443</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>442</v>
+      </c>
+      <c r="IQ5" t="s">
+        <v>460</v>
+      </c>
+      <c r="IR5" t="s">
+        <v>461</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>462</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>463</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>464</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>465</v>
+      </c>
+      <c r="IW5" t="s">
+        <v>466</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>467</v>
+      </c>
+      <c r="IY5" t="s">
+        <v>331</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>467</v>
+      </c>
+      <c r="JA5" t="s">
+        <v>468</v>
+      </c>
+      <c r="JB5" t="s">
+        <v>469</v>
+      </c>
+      <c r="JC5" t="s">
+        <v>470</v>
+      </c>
+      <c r="JD5" t="s">
+        <v>471</v>
+      </c>
+      <c r="JE5" t="s">
         <v>312</v>
       </c>
-      <c r="T5" t="s">
-        <v>313</v>
-      </c>
-      <c r="U5" t="s">
-        <v>309</v>
-      </c>
-      <c r="V5" t="s">
-        <v>314</v>
-      </c>
-      <c r="W5" t="s">
-        <v>315</v>
-      </c>
-      <c r="X5" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="JF5" t="s">
         <v>322</v>
       </c>
-      <c r="AI5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>323</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>328</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>329</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>330</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="JG5" t="s">
         <v>331</v>
       </c>
-      <c r="AX5" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>333</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>327</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>334</v>
-      </c>
-      <c r="BB5" t="s">
+      <c r="JH5" t="s">
+        <v>472</v>
+      </c>
+      <c r="JI5" t="s">
+        <v>473</v>
+      </c>
+      <c r="JJ5" t="s">
+        <v>474</v>
+      </c>
+      <c r="JK5" t="s">
+        <v>475</v>
+      </c>
+      <c r="JL5" t="s">
+        <v>476</v>
+      </c>
+      <c r="JM5" t="s">
+        <v>408</v>
+      </c>
+      <c r="JN5" t="s">
+        <v>473</v>
+      </c>
+      <c r="JO5" t="s">
+        <v>477</v>
+      </c>
+      <c r="JP5" t="s">
+        <v>406</v>
+      </c>
+      <c r="JQ5" t="s">
+        <v>344</v>
+      </c>
+      <c r="JR5" t="s">
+        <v>478</v>
+      </c>
+      <c r="JS5" t="s">
+        <v>473</v>
+      </c>
+      <c r="JT5" t="s">
+        <v>479</v>
+      </c>
+      <c r="JU5" t="s">
+        <v>383</v>
+      </c>
+      <c r="JV5" t="s">
+        <v>480</v>
+      </c>
+      <c r="JW5" t="s">
+        <v>481</v>
+      </c>
+      <c r="JX5" t="s">
+        <v>452</v>
+      </c>
+      <c r="JY5" t="s">
+        <v>482</v>
+      </c>
+      <c r="JZ5" t="s">
+        <v>483</v>
+      </c>
+      <c r="KA5" t="s">
+        <v>484</v>
+      </c>
+      <c r="KB5" t="s">
+        <v>485</v>
+      </c>
+      <c r="KC5" t="s">
+        <v>486</v>
+      </c>
+      <c r="KD5" t="s">
+        <v>487</v>
+      </c>
+      <c r="KE5" t="s">
         <v>335</v>
       </c>
-      <c r="BC5" t="s">
-        <v>336</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>337</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>338</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>339</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>340</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>342</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>343</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>340</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>344</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>345</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>346</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>347</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>348</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>349</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>350</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>351</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>352</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>353</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>354</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>355</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>357</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>358</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>359</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>342</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>360</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>352</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>361</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>362</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>363</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>364</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>365</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>366</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>367</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>368</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>369</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>360</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>342</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>363</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>370</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>371</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>371</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>372</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>373</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>347</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>374</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>376</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>377</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>376</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>371</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>370</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>378</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>379</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>378</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>381</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>382</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>381</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>383</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>384</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>385</v>
-      </c>
-      <c r="DP5" t="s">
+      <c r="KF5" t="s">
+        <v>488</v>
+      </c>
+      <c r="KG5" t="s">
         <v>386</v>
       </c>
-      <c r="DQ5" t="s">
-        <v>367</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>346</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>387</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>342</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>388</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>389</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>367</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>362</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>390</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>360</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>365</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>391</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>392</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>393</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>394</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>342</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>395</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>350</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>341</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>345</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>396</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>397</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>398</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>399</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>312</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>400</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>348</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>349</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>401</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>402</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>403</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>404</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>340</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>405</v>
-      </c>
-      <c r="EZ5" t="s">
-        <v>406</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>406</v>
-      </c>
-      <c r="FB5" t="s">
-        <v>348</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>402</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>403</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>368</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>365</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>407</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>402</v>
-      </c>
-      <c r="FI5" t="s">
-        <v>408</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>409</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>357</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>410</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>389</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>411</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>412</v>
-      </c>
-      <c r="FP5" t="s">
-        <v>413</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>414</v>
-      </c>
-      <c r="FR5" t="s">
-        <v>415</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>416</v>
-      </c>
-      <c r="FT5" t="s">
-        <v>417</v>
-      </c>
-      <c r="FU5" t="s">
-        <v>418</v>
-      </c>
-      <c r="FV5" t="s">
-        <v>419</v>
-      </c>
-      <c r="FW5" t="s">
-        <v>420</v>
-      </c>
-      <c r="FX5" t="s">
-        <v>421</v>
-      </c>
-      <c r="FY5" t="s">
-        <v>422</v>
-      </c>
-      <c r="FZ5" t="s">
-        <v>423</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>424</v>
-      </c>
-      <c r="GB5" t="s">
-        <v>425</v>
-      </c>
-      <c r="GC5" t="s">
-        <v>426</v>
-      </c>
-      <c r="GD5" t="s">
-        <v>419</v>
-      </c>
-      <c r="GE5" t="s">
-        <v>419</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>427</v>
-      </c>
-      <c r="GG5" t="s">
-        <v>428</v>
-      </c>
-      <c r="GH5" t="s">
-        <v>366</v>
-      </c>
-      <c r="GI5" t="s">
-        <v>346</v>
-      </c>
-      <c r="GJ5" t="s">
-        <v>357</v>
-      </c>
-      <c r="GK5" t="s">
-        <v>358</v>
-      </c>
-      <c r="GL5" t="s">
-        <v>392</v>
-      </c>
-      <c r="GM5" t="s">
-        <v>391</v>
-      </c>
-      <c r="GN5" t="s">
-        <v>429</v>
-      </c>
-      <c r="GO5" t="s">
-        <v>350</v>
-      </c>
-      <c r="GP5" t="s">
-        <v>401</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>430</v>
-      </c>
-      <c r="GR5" t="s">
-        <v>430</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>372</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>431</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>431</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>432</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>433</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>434</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>435</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>315</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>436</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>437</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>438</v>
-      </c>
-      <c r="HD5" t="s">
-        <v>320</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>437</v>
-      </c>
-      <c r="HF5" t="s">
-        <v>314</v>
-      </c>
-      <c r="HG5" t="s">
-        <v>325</v>
-      </c>
-      <c r="HH5" t="s">
-        <v>439</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>440</v>
-      </c>
-      <c r="HJ5" t="s">
-        <v>322</v>
-      </c>
-      <c r="HK5" t="s">
-        <v>441</v>
-      </c>
-      <c r="HL5" t="s">
-        <v>442</v>
-      </c>
-      <c r="HM5" t="s">
-        <v>442</v>
-      </c>
-      <c r="HN5" t="s">
-        <v>442</v>
-      </c>
-      <c r="HO5" t="s">
-        <v>308</v>
-      </c>
-      <c r="HP5" t="s">
-        <v>443</v>
-      </c>
-      <c r="HQ5" t="s">
-        <v>336</v>
-      </c>
-      <c r="HR5" t="s">
-        <v>320</v>
-      </c>
-      <c r="HS5" t="s">
-        <v>444</v>
-      </c>
-      <c r="HT5" t="s">
-        <v>445</v>
-      </c>
-      <c r="HU5" t="s">
-        <v>338</v>
-      </c>
-      <c r="HV5" t="s">
-        <v>446</v>
-      </c>
-      <c r="HW5" t="s">
-        <v>314</v>
-      </c>
-      <c r="HX5" t="s">
-        <v>447</v>
-      </c>
-      <c r="HY5" t="s">
-        <v>448</v>
-      </c>
-      <c r="HZ5" t="s">
-        <v>338</v>
-      </c>
-      <c r="IA5" t="s">
-        <v>303</v>
-      </c>
-      <c r="IB5" t="s">
-        <v>317</v>
-      </c>
-      <c r="IC5" t="s">
-        <v>315</v>
-      </c>
-      <c r="ID5" t="s">
-        <v>449</v>
-      </c>
-      <c r="IE5" t="s">
-        <v>450</v>
-      </c>
-      <c r="IF5" t="s">
-        <v>333</v>
-      </c>
-      <c r="IG5" t="s">
-        <v>330</v>
-      </c>
-      <c r="IH5" t="s">
-        <v>451</v>
-      </c>
-      <c r="II5" t="s">
-        <v>452</v>
-      </c>
-      <c r="IJ5" t="s">
-        <v>453</v>
-      </c>
-      <c r="IK5" t="s">
-        <v>454</v>
-      </c>
-      <c r="IL5" t="s">
-        <v>455</v>
-      </c>
-      <c r="IM5" t="s">
-        <v>456</v>
-      </c>
-      <c r="IN5" t="s">
-        <v>457</v>
-      </c>
-      <c r="IO5" t="s">
-        <v>441</v>
-      </c>
-      <c r="IP5" t="s">
-        <v>440</v>
-      </c>
-      <c r="IQ5" t="s">
-        <v>458</v>
-      </c>
-      <c r="IR5" t="s">
-        <v>459</v>
-      </c>
-      <c r="IS5" t="s">
-        <v>460</v>
-      </c>
-      <c r="IT5" t="s">
-        <v>461</v>
-      </c>
-      <c r="IU5" t="s">
-        <v>462</v>
-      </c>
-      <c r="IV5" t="s">
-        <v>463</v>
-      </c>
-      <c r="IW5" t="s">
-        <v>464</v>
-      </c>
-      <c r="IX5" t="s">
-        <v>465</v>
-      </c>
-      <c r="IY5" t="s">
-        <v>329</v>
-      </c>
-      <c r="IZ5" t="s">
-        <v>465</v>
-      </c>
-      <c r="JA5" t="s">
-        <v>466</v>
-      </c>
-      <c r="JB5" t="s">
-        <v>467</v>
-      </c>
-      <c r="JC5" t="s">
-        <v>468</v>
-      </c>
-      <c r="JD5" t="s">
-        <v>469</v>
-      </c>
-      <c r="JE5" t="s">
-        <v>310</v>
-      </c>
-      <c r="JF5" t="s">
-        <v>320</v>
-      </c>
-      <c r="JG5" t="s">
-        <v>329</v>
-      </c>
-      <c r="JH5" t="s">
-        <v>470</v>
-      </c>
-      <c r="JI5" t="s">
-        <v>471</v>
-      </c>
-      <c r="JJ5" t="s">
-        <v>472</v>
-      </c>
-      <c r="JK5" t="s">
-        <v>473</v>
-      </c>
-      <c r="JL5" t="s">
-        <v>474</v>
-      </c>
-      <c r="JM5" t="s">
-        <v>406</v>
-      </c>
-      <c r="JN5" t="s">
-        <v>471</v>
-      </c>
-      <c r="JO5" t="s">
-        <v>475</v>
-      </c>
-      <c r="JP5" t="s">
-        <v>404</v>
-      </c>
-      <c r="JQ5" t="s">
-        <v>342</v>
-      </c>
-      <c r="JR5" t="s">
-        <v>476</v>
-      </c>
-      <c r="JS5" t="s">
-        <v>471</v>
-      </c>
-      <c r="JT5" t="s">
-        <v>477</v>
-      </c>
-      <c r="JU5" t="s">
-        <v>381</v>
-      </c>
-      <c r="JV5" t="s">
-        <v>478</v>
-      </c>
-      <c r="JW5" t="s">
-        <v>479</v>
-      </c>
-      <c r="JX5" t="s">
-        <v>450</v>
-      </c>
-      <c r="JY5" t="s">
-        <v>480</v>
-      </c>
-      <c r="JZ5" t="s">
-        <v>481</v>
-      </c>
-      <c r="KA5" t="s">
-        <v>482</v>
-      </c>
-      <c r="KB5" t="s">
-        <v>483</v>
-      </c>
-      <c r="KC5" t="s">
-        <v>484</v>
-      </c>
-      <c r="KD5" t="s">
-        <v>485</v>
-      </c>
-      <c r="KE5" t="s">
-        <v>333</v>
-      </c>
-      <c r="KF5" t="s">
-        <v>486</v>
-      </c>
-      <c r="KG5" t="s">
-        <v>384</v>
+      <c r="KH5" t="s">
+        <v>489</v>
+      </c>
+      <c r="KI5" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
